--- a/src/main/resources/template/excel/export/goodsExport.xlsx
+++ b/src/main/resources/template/excel/export/goodsExport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28620" windowHeight="3810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -20,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="1">
+    <comment ref="A2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="1">
+    <comment ref="B2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>货号</t>
   </si>
@@ -319,14 +320,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,345 +336,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -687,251 +369,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -945,58 +385,19 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1286,17 +687,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
@@ -1334,7 +734,7 @@
     <col min="37" max="37" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1560,7 +960,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" ht="17.25" spans="3:34">
+    <row r="14" spans="1:37" ht="17.25" x14ac:dyDescent="0.35">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1594,9 +994,9 @@
       <c r="AH14" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/goodsExport.xlsx
+++ b/src/main/resources/template/excel/export/goodsExport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28620" windowHeight="3810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23115" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -29,16 +29,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">YSCGD:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:area(lastCell="AK2")</t>
+          <t>YSCGD:
+jx:area(lastCell="AK2")</t>
         </r>
       </text>
     </comment>
@@ -51,40 +43,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">YSCGD:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:area(lastCell="AK2")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">YSCGD:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:area(lastCell="AK2")</t>
+          <t>YSCGD:
+jx:each(items="reportList" var="obj" lastCell="AK2")</t>
         </r>
       </text>
     </comment>
@@ -98,223 +58,225 @@
     <t>货号</t>
   </si>
   <si>
+    <t>条码</t>
+  </si>
+  <si>
+    <t>助记码</t>
+  </si>
+  <si>
+    <t>商品类别</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>库存单位</t>
+  </si>
+  <si>
+    <t>进货规格</t>
+  </si>
+  <si>
+    <t>配送规格</t>
+  </si>
+  <si>
+    <t>保质天数</t>
+  </si>
+  <si>
+    <t>产地</t>
+  </si>
+  <si>
+    <t>主供应商</t>
+  </si>
+  <si>
+    <t>经营方式</t>
+  </si>
+  <si>
+    <t>联营/代销扣率</t>
+  </si>
+  <si>
+    <t>进货价</t>
+  </si>
+  <si>
+    <t>零售价</t>
+  </si>
+  <si>
+    <t>配送价</t>
+  </si>
+  <si>
+    <t>批发价</t>
+  </si>
+  <si>
+    <t>会员价</t>
+  </si>
+  <si>
+    <t>最低零售价</t>
+  </si>
+  <si>
+    <t>商品状态</t>
+  </si>
+  <si>
+    <t>商品类型</t>
+  </si>
+  <si>
+    <t>计价方式</t>
+  </si>
+  <si>
+    <t>进项税率</t>
+  </si>
+  <si>
+    <t>销项税率</t>
+  </si>
+  <si>
+    <t>毛利率</t>
+  </si>
+  <si>
+    <t>毛利值</t>
+  </si>
+  <si>
+    <t>是否管理库存</t>
+  </si>
+  <si>
+    <t>是否高值商品</t>
+  </si>
+  <si>
+    <t>是否关注商品</t>
+  </si>
+  <si>
+    <t>是否速送商品</t>
+  </si>
+  <si>
+    <t>建档日期</t>
+  </si>
+  <si>
+    <t>建档人</t>
+  </si>
+  <si>
+    <t>修改日期</t>
+  </si>
+  <si>
+    <t>修改人</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>${obj.skuCode}</t>
+  </si>
+  <si>
+    <t>${obj.barCode}</t>
+  </si>
+  <si>
+    <t>${obj.memoryCode}</t>
+  </si>
+  <si>
+    <t>${obj.categoryName}</t>
+  </si>
+  <si>
+    <t>${obj.spec}</t>
+  </si>
+  <si>
+    <t>${obj.brandName}</t>
+  </si>
+  <si>
+    <t>${obj.unit}</t>
+  </si>
+  <si>
+    <t>${obj.purchaseSpec}</t>
+  </si>
+  <si>
+    <t>${obj.distributionSpec}</t>
+  </si>
+  <si>
+    <t>${obj.vaildity}</t>
+  </si>
+  <si>
+    <t>${obj.originPlace}</t>
+  </si>
+  <si>
+    <t>${obj.supplierName}</t>
+  </si>
+  <si>
+    <t>${obj.saleWayName}</t>
+  </si>
+  <si>
+    <t>${obj.supplierRate}</t>
+  </si>
+  <si>
+    <t>${obj.purchasePrice}</t>
+  </si>
+  <si>
+    <t>${obj.salePrice}</t>
+  </si>
+  <si>
+    <t>${obj.distributionPrice}</t>
+  </si>
+  <si>
+    <t>${obj.wholesalePrice}</t>
+  </si>
+  <si>
+    <t>${obj.vipPrice}</t>
+  </si>
+  <si>
+    <t>${obj.lowestPrice}</t>
+  </si>
+  <si>
+    <t>${obj.status.value}</t>
+  </si>
+  <si>
+    <t>${obj.type.value}</t>
+  </si>
+  <si>
+    <t>${obj.pricingType.value}</t>
+  </si>
+  <si>
+    <t>${obj.inputTax}</t>
+  </si>
+  <si>
+    <t>${obj.outputTax}</t>
+  </si>
+  <si>
+    <t>${(obj.salePrice-obj.purchasePrice)/obj.salePrice}</t>
+  </si>
+  <si>
+    <t>${obj.salePrice-obj.purchasePrice}</t>
+  </si>
+  <si>
+    <t>${obj.managerStockDesc}</t>
+  </si>
+  <si>
+    <t>${obj.highValueDesc}</t>
+  </si>
+  <si>
+    <t>${obj.attentionDesc}</t>
+  </si>
+  <si>
+    <t>${obj.fastDeliverDesc}</t>
+  </si>
+  <si>
+    <t>${obj.createTime}</t>
+  </si>
+  <si>
+    <t>${obj.createName}</t>
+  </si>
+  <si>
+    <t>${obj.updateTime}</t>
+  </si>
+  <si>
+    <t>${obj.updateName}</t>
+  </si>
+  <si>
+    <t>${obj.remark}</t>
+  </si>
+  <si>
     <t>商品名称</t>
-  </si>
-  <si>
-    <t>条码</t>
-  </si>
-  <si>
-    <t>助记码</t>
-  </si>
-  <si>
-    <t>商品类别</t>
-  </si>
-  <si>
-    <t>规格</t>
-  </si>
-  <si>
-    <t>品牌</t>
-  </si>
-  <si>
-    <t>库存单位</t>
-  </si>
-  <si>
-    <t>进货规格</t>
-  </si>
-  <si>
-    <t>配送规格</t>
-  </si>
-  <si>
-    <t>保质天数</t>
-  </si>
-  <si>
-    <t>产地</t>
-  </si>
-  <si>
-    <t>主供应商</t>
-  </si>
-  <si>
-    <t>经营方式</t>
-  </si>
-  <si>
-    <t>联营/代销扣率</t>
-  </si>
-  <si>
-    <t>进货价</t>
-  </si>
-  <si>
-    <t>零售价</t>
-  </si>
-  <si>
-    <t>配送价</t>
-  </si>
-  <si>
-    <t>批发价</t>
-  </si>
-  <si>
-    <t>会员价</t>
-  </si>
-  <si>
-    <t>最低零售价</t>
-  </si>
-  <si>
-    <t>商品状态</t>
-  </si>
-  <si>
-    <t>商品类型</t>
-  </si>
-  <si>
-    <t>计价方式</t>
-  </si>
-  <si>
-    <t>进项税率</t>
-  </si>
-  <si>
-    <t>销项税率</t>
-  </si>
-  <si>
-    <t>毛利率</t>
-  </si>
-  <si>
-    <t>毛利值</t>
-  </si>
-  <si>
-    <t>是否管理库存</t>
-  </si>
-  <si>
-    <t>是否高值商品</t>
-  </si>
-  <si>
-    <t>是否关注商品</t>
-  </si>
-  <si>
-    <t>是否速送商品</t>
-  </si>
-  <si>
-    <t>建档日期</t>
-  </si>
-  <si>
-    <t>建档人</t>
-  </si>
-  <si>
-    <t>修改日期</t>
-  </si>
-  <si>
-    <t>修改人</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>${obj.skuCode}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>${obj.skuName}</t>
-  </si>
-  <si>
-    <t>${obj.barCode}</t>
-  </si>
-  <si>
-    <t>${obj.memoryCode}</t>
-  </si>
-  <si>
-    <t>${obj.categoryName}</t>
-  </si>
-  <si>
-    <t>${obj.spec}</t>
-  </si>
-  <si>
-    <t>${obj.brandName}</t>
-  </si>
-  <si>
-    <t>${obj.unit}</t>
-  </si>
-  <si>
-    <t>${obj.purchaseSpec}</t>
-  </si>
-  <si>
-    <t>${obj.distributionSpec}</t>
-  </si>
-  <si>
-    <t>${obj.vaildity}</t>
-  </si>
-  <si>
-    <t>${obj.originPlace}</t>
-  </si>
-  <si>
-    <t>${obj.supplierName}</t>
-  </si>
-  <si>
-    <t>${obj.saleWayName}</t>
-  </si>
-  <si>
-    <t>${obj.supplierRate}</t>
-  </si>
-  <si>
-    <t>${obj.purchasePrice}</t>
-  </si>
-  <si>
-    <t>${obj.salePrice}</t>
-  </si>
-  <si>
-    <t>${obj.distributionPrice}</t>
-  </si>
-  <si>
-    <t>${obj.wholesalePrice}</t>
-  </si>
-  <si>
-    <t>${obj.vipPrice}</t>
-  </si>
-  <si>
-    <t>${obj.lowestPrice}</t>
-  </si>
-  <si>
-    <t>${obj.status.value}</t>
-  </si>
-  <si>
-    <t>${obj.type.value}</t>
-  </si>
-  <si>
-    <t>${obj.pricingType.value}</t>
-  </si>
-  <si>
-    <t>${obj.inputTax}</t>
-  </si>
-  <si>
-    <t>${obj.outputTax}</t>
-  </si>
-  <si>
-    <t>${(obj.salePrice-obj.purchasePrice)/obj.salePrice}</t>
-  </si>
-  <si>
-    <t>${obj.salePrice-obj.purchasePrice}</t>
-  </si>
-  <si>
-    <t>${obj.managerStockDesc}</t>
-  </si>
-  <si>
-    <t>${obj.highValueDesc}</t>
-  </si>
-  <si>
-    <t>${obj.attentionDesc}</t>
-  </si>
-  <si>
-    <t>${obj.fastDeliverDesc}</t>
-  </si>
-  <si>
-    <t>${obj.createTime}</t>
-  </si>
-  <si>
-    <t>${obj.createName}</t>
-  </si>
-  <si>
-    <t>${obj.updateTime}</t>
-  </si>
-  <si>
-    <t>${obj.updateName}</t>
-  </si>
-  <si>
-    <t>${obj.remark}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -444,7 +406,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,7 +441,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -691,7 +653,7 @@
   <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -734,264 +696,275 @@
     <col min="37" max="37" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+    </row>
+    <row r="2" spans="1:37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" t="s">
-        <v>56</v>
-      </c>
-      <c r="U2" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>73</v>
-      </c>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:37" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="4"/>
     </row>
-    <row r="14" spans="1:37" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="7"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="5"/>
+    <row r="14" spans="1:37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N14" s="1"/>
+      <c r="O14" s="2"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="2"/>
+      <c r="AG14" s="4"/>
+      <c r="AI14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/src/main/resources/template/excel/export/goodsExport.xlsx
+++ b/src/main/resources/template/excel/export/goodsExport.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysc\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23115" windowHeight="8055"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -27,10 +31,11 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:area(lastCell="AK2")</t>
+jx:area(lastCell="Q2")</t>
         </r>
       </text>
     </comment>
@@ -41,10 +46,11 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="AK2")</t>
+jx:each(items="reportList" var="obj" lastCell="Q2")</t>
         </r>
       </text>
     </comment>
@@ -53,17 +59,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
-  <si>
-    <t>货号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>条码</t>
   </si>
   <si>
-    <t>助记码</t>
-  </si>
-  <si>
     <t>商品类别</t>
   </si>
   <si>
@@ -88,15 +88,6 @@
     <t>产地</t>
   </si>
   <si>
-    <t>主供应商</t>
-  </si>
-  <si>
-    <t>经营方式</t>
-  </si>
-  <si>
-    <t>联营/代销扣率</t>
-  </si>
-  <si>
     <t>进货价</t>
   </si>
   <si>
@@ -112,66 +103,12 @@
     <t>会员价</t>
   </si>
   <si>
-    <t>最低零售价</t>
-  </si>
-  <si>
-    <t>商品状态</t>
-  </si>
-  <si>
     <t>商品类型</t>
   </si>
   <si>
-    <t>计价方式</t>
-  </si>
-  <si>
-    <t>进项税率</t>
-  </si>
-  <si>
-    <t>销项税率</t>
-  </si>
-  <si>
-    <t>毛利率</t>
-  </si>
-  <si>
-    <t>毛利值</t>
-  </si>
-  <si>
-    <t>是否管理库存</t>
-  </si>
-  <si>
-    <t>是否高值商品</t>
-  </si>
-  <si>
-    <t>是否关注商品</t>
-  </si>
-  <si>
-    <t>是否速送商品</t>
-  </si>
-  <si>
-    <t>建档日期</t>
-  </si>
-  <si>
-    <t>建档人</t>
-  </si>
-  <si>
-    <t>修改日期</t>
-  </si>
-  <si>
-    <t>修改人</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>${obj.skuCode}</t>
-  </si>
-  <si>
     <t>${obj.barCode}</t>
   </si>
   <si>
-    <t>${obj.memoryCode}</t>
-  </si>
-  <si>
     <t>${obj.categoryName}</t>
   </si>
   <si>
@@ -196,15 +133,6 @@
     <t>${obj.originPlace}</t>
   </si>
   <si>
-    <t>${obj.supplierName}</t>
-  </si>
-  <si>
-    <t>${obj.saleWayName}</t>
-  </si>
-  <si>
-    <t>${obj.supplierRate}</t>
-  </si>
-  <si>
     <t>${obj.purchasePrice}</t>
   </si>
   <si>
@@ -220,55 +148,7 @@
     <t>${obj.vipPrice}</t>
   </si>
   <si>
-    <t>${obj.lowestPrice}</t>
-  </si>
-  <si>
-    <t>${obj.status.value}</t>
-  </si>
-  <si>
     <t>${obj.type.value}</t>
-  </si>
-  <si>
-    <t>${obj.pricingType.value}</t>
-  </si>
-  <si>
-    <t>${obj.inputTax}</t>
-  </si>
-  <si>
-    <t>${obj.outputTax}</t>
-  </si>
-  <si>
-    <t>${(obj.salePrice-obj.purchasePrice)/obj.salePrice}</t>
-  </si>
-  <si>
-    <t>${obj.salePrice-obj.purchasePrice}</t>
-  </si>
-  <si>
-    <t>${obj.managerStockDesc}</t>
-  </si>
-  <si>
-    <t>${obj.highValueDesc}</t>
-  </si>
-  <si>
-    <t>${obj.attentionDesc}</t>
-  </si>
-  <si>
-    <t>${obj.fastDeliverDesc}</t>
-  </si>
-  <si>
-    <t>${obj.createTime}</t>
-  </si>
-  <si>
-    <t>${obj.createName}</t>
-  </si>
-  <si>
-    <t>${obj.updateTime}</t>
-  </si>
-  <si>
-    <t>${obj.updateName}</t>
-  </si>
-  <si>
-    <t>${obj.remark}</t>
   </si>
   <si>
     <t>商品名称</t>
@@ -276,6 +156,14 @@
   </si>
   <si>
     <t>${obj.skuName}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>计价方式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.pricingType.value}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,22 +183,34 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -335,17 +235,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -650,18 +543,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="19.625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="17.125" customWidth="1"/>
@@ -670,301 +563,134 @@
     <col min="10" max="10" width="24.125" customWidth="1"/>
     <col min="11" max="11" width="15.25" customWidth="1"/>
     <col min="12" max="12" width="19.375" customWidth="1"/>
-    <col min="13" max="13" width="20.375" customWidth="1"/>
-    <col min="14" max="14" width="16.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.625" customWidth="1"/>
-    <col min="17" max="17" width="16.875" customWidth="1"/>
-    <col min="18" max="18" width="25" customWidth="1"/>
-    <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="20" max="20" width="16.25" customWidth="1"/>
-    <col min="21" max="21" width="20" customWidth="1"/>
-    <col min="22" max="22" width="20.125" customWidth="1"/>
-    <col min="23" max="23" width="18.25" customWidth="1"/>
-    <col min="24" max="24" width="24.875" customWidth="1"/>
-    <col min="25" max="26" width="16.375" style="3" customWidth="1"/>
-    <col min="27" max="27" width="58.25" style="2" customWidth="1"/>
-    <col min="28" max="28" width="34.625" customWidth="1"/>
-    <col min="29" max="29" width="30.875" customWidth="1"/>
-    <col min="30" max="30" width="21.25" customWidth="1"/>
-    <col min="31" max="31" width="20" customWidth="1"/>
-    <col min="32" max="32" width="24.625" customWidth="1"/>
-    <col min="33" max="33" width="18.25" style="4" customWidth="1"/>
-    <col min="34" max="34" width="20.25" customWidth="1"/>
-    <col min="35" max="35" width="17.125" style="4" customWidth="1"/>
-    <col min="36" max="36" width="26.375" customWidth="1"/>
-    <col min="37" max="37" width="16" customWidth="1"/>
+    <col min="13" max="13" width="20.625" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="17" max="17" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="N2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W2" t="s">
-        <v>57</v>
-      </c>
-      <c r="X2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:37" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="7"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="4"/>
-    </row>
-    <row r="14" spans="1:37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="N14" s="1"/>
-      <c r="O14" s="2"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="2"/>
-      <c r="AG14" s="4"/>
-      <c r="AI14" s="4"/>
+    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/src/main/resources/template/excel/export/goodsExport.xlsx
+++ b/src/main/resources/template/excel/export/goodsExport.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysc\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23115" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -35,7 +31,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:area(lastCell="Q2")</t>
+jx:area(lastCell="R2")</t>
         </r>
       </text>
     </comment>
@@ -50,7 +46,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="Q2")</t>
+jx:each(items="reportList" var="obj" lastCell="R2")</t>
         </r>
       </text>
     </comment>
@@ -59,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>条码</t>
   </si>
@@ -164,6 +160,14 @@
   </si>
   <si>
     <t>${obj.pricingType.value}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品一级类别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.oneCategoryName}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -543,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -555,22 +559,23 @@
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="19.375" customWidth="1"/>
-    <col min="10" max="10" width="24.125" customWidth="1"/>
-    <col min="11" max="11" width="15.25" customWidth="1"/>
-    <col min="12" max="12" width="19.375" customWidth="1"/>
-    <col min="13" max="13" width="20.625" customWidth="1"/>
-    <col min="14" max="14" width="16.875" customWidth="1"/>
-    <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="16" width="22" customWidth="1"/>
-    <col min="17" max="17" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="11" max="11" width="24.125" customWidth="1"/>
+    <col min="12" max="12" width="15.25" customWidth="1"/>
+    <col min="13" max="13" width="19.375" customWidth="1"/>
+    <col min="14" max="14" width="20.625" customWidth="1"/>
+    <col min="15" max="15" width="16.875" customWidth="1"/>
+    <col min="16" max="16" width="25" customWidth="1"/>
+    <col min="17" max="17" width="22" customWidth="1"/>
+    <col min="18" max="18" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -584,46 +589,49 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -637,46 +645,49 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -687,10 +698,11 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="M13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/src/main/resources/template/excel/export/goodsExport.xlsx
+++ b/src/main/resources/template/excel/export/goodsExport.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysc\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="7335"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -31,7 +35,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:area(lastCell="R2")</t>
+jx:area(lastCell="Z2")</t>
         </r>
       </text>
     </comment>
@@ -46,7 +50,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="R2")</t>
+jx:each(items="reportList" var="obj" lastCell="Z2")</t>
         </r>
       </text>
     </comment>
@@ -55,10 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>条码</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>商品类别</t>
   </si>
@@ -72,15 +73,9 @@
     <t>库存单位</t>
   </si>
   <si>
-    <t>进货规格</t>
-  </si>
-  <si>
     <t>配送规格</t>
   </si>
   <si>
-    <t>保质天数</t>
-  </si>
-  <si>
     <t>产地</t>
   </si>
   <si>
@@ -96,78 +91,322 @@
     <t>批发价</t>
   </si>
   <si>
+    <t>${obj.barCode}</t>
+  </si>
+  <si>
+    <t>${obj.categoryName}</t>
+  </si>
+  <si>
+    <t>${obj.spec}</t>
+  </si>
+  <si>
+    <t>${obj.brandName}</t>
+  </si>
+  <si>
+    <t>${obj.unit}</t>
+  </si>
+  <si>
+    <t>${obj.distributionSpec}</t>
+  </si>
+  <si>
+    <t>${obj.originPlace}</t>
+  </si>
+  <si>
+    <t>${obj.purchasePrice}</t>
+  </si>
+  <si>
+    <t>${obj.salePrice}</t>
+  </si>
+  <si>
+    <t>${obj.distributionPrice}</t>
+  </si>
+  <si>
+    <t>${obj.wholesalePrice}</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.skuName}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品一级类别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.oneCategoryName}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>计价方式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.pricingType.value}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>货号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.skuCode}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>助记码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memoryCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购规格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>purchaseSpec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vaildity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>保质期天数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>supplierName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主供应商</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营方式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>联营扣率/代销扣率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.supplierRate}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>会员价</t>
-  </si>
-  <si>
-    <t>商品类型</t>
-  </si>
-  <si>
-    <t>${obj.barCode}</t>
-  </si>
-  <si>
-    <t>${obj.categoryName}</t>
-  </si>
-  <si>
-    <t>${obj.spec}</t>
-  </si>
-  <si>
-    <t>${obj.brandName}</t>
-  </si>
-  <si>
-    <t>${obj.unit}</t>
-  </si>
-  <si>
-    <t>${obj.purchaseSpec}</t>
-  </si>
-  <si>
-    <t>${obj.distributionSpec}</t>
-  </si>
-  <si>
-    <t>${obj.vaildity}</t>
-  </si>
-  <si>
-    <t>${obj.originPlace}</t>
-  </si>
-  <si>
-    <t>${obj.purchasePrice}</t>
-  </si>
-  <si>
-    <t>${obj.salePrice}</t>
-  </si>
-  <si>
-    <t>${obj.distributionPrice}</t>
-  </si>
-  <si>
-    <t>${obj.wholesalePrice}</t>
-  </si>
-  <si>
-    <t>${obj.vipPrice}</t>
-  </si>
-  <si>
-    <t>${obj.type.value}</t>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.skuName}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>计价方式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.pricingType.value}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品一级类别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.oneCategoryName}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vipPrice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.status.value}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进项税率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inputTax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>销项税率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.outputTax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.marginTax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.saleWayName}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -175,6 +414,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,10 +481,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -547,167 +792,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="19.375" customWidth="1"/>
-    <col min="11" max="11" width="24.125" customWidth="1"/>
-    <col min="12" max="12" width="15.25" customWidth="1"/>
-    <col min="13" max="13" width="19.375" customWidth="1"/>
-    <col min="14" max="14" width="20.625" customWidth="1"/>
-    <col min="15" max="15" width="16.875" customWidth="1"/>
-    <col min="16" max="16" width="25" customWidth="1"/>
-    <col min="17" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="16.25" customWidth="1"/>
+    <col min="1" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="22.25" customWidth="1"/>
+    <col min="10" max="10" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="24.5" customWidth="1"/>
+    <col min="12" max="12" width="17.125" customWidth="1"/>
+    <col min="13" max="15" width="31.25" customWidth="1"/>
+    <col min="16" max="16" width="31.25" style="4" customWidth="1"/>
+    <col min="17" max="17" width="19.375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="24.125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="20.625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="16.875" style="4" customWidth="1"/>
+    <col min="22" max="22" width="25" customWidth="1"/>
+    <col min="23" max="23" width="27.25" customWidth="1"/>
+    <col min="24" max="24" width="17.75" style="4" customWidth="1"/>
+    <col min="25" max="25" width="22.5" style="4" customWidth="1"/>
+    <col min="26" max="26" width="49.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>28</v>
-      </c>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+    <row r="13" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/goodsExport.xlsx
+++ b/src/main/resources/template/excel/export/goodsExport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,9 +31,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Z4")</t>
+          <t>jx:area(lastCell="Z3")</t>
         </r>
       </text>
     </comment>
@@ -44,6 +45,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="Z3")</t>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>商品档案</t>
   </si>
@@ -214,38 +216,14 @@
   </si>
   <si>
     <t>${obj.marginTax}</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(Q3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(R3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(S3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(T3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(U3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -260,6 +238,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -267,34 +246,40 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -340,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -353,83 +338,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -449,7 +363,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -484,7 +398,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,7 +433,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -728,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -939,63 +853,23 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-    </row>
-    <row r="14" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="F14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
+    <row r="13" spans="1:26" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="F13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
